--- a/REGULAR/CCT/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/CCT/JAVIER, CARMELITA M..xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896CFC1C-D4A2-42A1-862D-A7CA67159F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="310">
   <si>
     <t>PERIOD</t>
   </si>
@@ -931,12 +930,45 @@
   </si>
   <si>
     <t>11/17,20,21,22,23,24/2023</t>
+  </si>
+  <si>
+    <t>A(12-0-0)</t>
+  </si>
+  <si>
+    <t>11/6-10,13-16,28-30/2023</t>
+  </si>
+  <si>
+    <t>A(19-0-0)</t>
+  </si>
+  <si>
+    <t>10/2-6,9-13,16-20,25-27,31/2023</t>
+  </si>
+  <si>
+    <t>A(20-0-0)</t>
+  </si>
+  <si>
+    <t>9/1,4-8,11-15,18-22,25-28/2023</t>
+  </si>
+  <si>
+    <t>A(17-0-0)</t>
+  </si>
+  <si>
+    <t>6/5-9,13-16,19,20,22,23,26,27,29,20/2023</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/9,10,13/2023</t>
+  </si>
+  <si>
+    <t>UT(1-6-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1611,7 +1643,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1628,26 +1660,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K594" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K594" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K598"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1954,34 +1986,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K594"/>
+  <dimension ref="A2:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4428" topLeftCell="A527" activePane="bottomLeft"/>
+      <pane ySplit="4425" topLeftCell="A515" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="E534" sqref="E534"/>
+      <selection pane="bottomLeft" activeCell="E523" sqref="E523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2002,7 +2034,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2020,7 +2052,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2042,7 +2074,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2050,7 +2082,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2063,7 +2095,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2080,7 +2112,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2115,7 +2147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2124,7 +2156,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>60.66</v>
+        <v>-13.090000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2139,7 +2171,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -2161,7 +2193,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35611</v>
       </c>
@@ -2181,7 +2213,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35642</v>
       </c>
@@ -2201,7 +2233,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35673</v>
       </c>
@@ -2221,7 +2253,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35703</v>
       </c>
@@ -2241,7 +2273,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35734</v>
       </c>
@@ -2261,7 +2293,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35764</v>
       </c>
@@ -2281,7 +2313,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35795</v>
       </c>
@@ -2301,7 +2333,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -2319,7 +2351,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35826</v>
       </c>
@@ -2345,7 +2377,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>35854</v>
       </c>
@@ -2365,7 +2397,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>35885</v>
       </c>
@@ -2385,7 +2417,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>35915</v>
       </c>
@@ -2405,7 +2437,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35946</v>
       </c>
@@ -2431,7 +2463,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>46</v>
@@ -2450,7 +2482,7 @@
         <v>36295</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>35976</v>
       </c>
@@ -2476,7 +2508,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36007</v>
       </c>
@@ -2496,7 +2528,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36038</v>
       </c>
@@ -2518,7 +2550,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36038</v>
       </c>
@@ -2538,7 +2570,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36068</v>
       </c>
@@ -2564,7 +2596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>50</v>
@@ -2583,7 +2615,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36099</v>
       </c>
@@ -2607,7 +2639,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36129</v>
       </c>
@@ -2627,7 +2659,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36160</v>
       </c>
@@ -2651,7 +2683,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
         <v>45</v>
       </c>
@@ -2669,7 +2701,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36191</v>
       </c>
@@ -2689,7 +2721,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36219</v>
       </c>
@@ -2709,7 +2741,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36250</v>
       </c>
@@ -2729,7 +2761,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36280</v>
       </c>
@@ -2749,7 +2781,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36311</v>
       </c>
@@ -2775,7 +2807,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -2794,7 +2826,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>57</v>
@@ -2813,7 +2845,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>36341</v>
       </c>
@@ -2839,7 +2871,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36372</v>
       </c>
@@ -2859,7 +2891,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36403</v>
       </c>
@@ -2885,7 +2917,7 @@
         <v>36393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>36433</v>
       </c>
@@ -2911,7 +2943,7 @@
         <v>36438</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -2930,7 +2962,7 @@
         <v>36443</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36464</v>
       </c>
@@ -2950,7 +2982,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36494</v>
       </c>
@@ -2976,7 +3008,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -2995,7 +3027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>36525</v>
       </c>
@@ -3021,7 +3053,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -3041,7 +3073,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>66</v>
       </c>
@@ -3059,7 +3091,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36556</v>
       </c>
@@ -3079,7 +3111,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36585</v>
       </c>
@@ -3105,7 +3137,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>47</v>
@@ -3124,7 +3156,7 @@
         <v>36563</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>36616</v>
       </c>
@@ -3150,7 +3182,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36646</v>
       </c>
@@ -3176,7 +3208,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -3195,7 +3227,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36677</v>
       </c>
@@ -3221,7 +3253,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>68</v>
@@ -3240,7 +3272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36707</v>
       </c>
@@ -3260,7 +3292,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36738</v>
       </c>
@@ -3286,7 +3318,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -3303,7 +3335,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>36769</v>
       </c>
@@ -3329,7 +3361,7 @@
         <v>36747</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36799</v>
       </c>
@@ -3355,7 +3387,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36830</v>
       </c>
@@ -3375,7 +3407,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36860</v>
       </c>
@@ -3401,7 +3433,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36891</v>
       </c>
@@ -3427,7 +3459,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="48" t="s">
         <v>76</v>
       </c>
@@ -3445,7 +3477,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36922</v>
       </c>
@@ -3471,7 +3503,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -3490,7 +3522,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36950</v>
       </c>
@@ -3510,7 +3542,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36981</v>
       </c>
@@ -3530,7 +3562,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37011</v>
       </c>
@@ -3550,7 +3582,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37042</v>
       </c>
@@ -3576,7 +3608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>79</v>
@@ -3595,7 +3627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>80</v>
@@ -3612,7 +3644,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37072</v>
       </c>
@@ -3638,7 +3670,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37103</v>
       </c>
@@ -3664,7 +3696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>82</v>
@@ -3683,7 +3715,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37134</v>
       </c>
@@ -3709,7 +3741,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37164</v>
       </c>
@@ -3729,7 +3761,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37195</v>
       </c>
@@ -3755,7 +3787,7 @@
         <v>37192</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37225</v>
       </c>
@@ -3781,7 +3813,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37256</v>
       </c>
@@ -3801,7 +3833,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -3819,7 +3851,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>37287</v>
       </c>
@@ -3843,7 +3875,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37315</v>
       </c>
@@ -3869,7 +3901,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37346</v>
       </c>
@@ -3891,7 +3923,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37376</v>
       </c>
@@ -3913,7 +3945,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37407</v>
       </c>
@@ -3939,7 +3971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37437</v>
       </c>
@@ -3965,7 +3997,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37468</v>
       </c>
@@ -3991,7 +4023,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -4010,7 +4042,7 @@
         <v>37467</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37499</v>
       </c>
@@ -4036,7 +4068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37529</v>
       </c>
@@ -4062,7 +4094,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37560</v>
       </c>
@@ -4088,7 +4120,7 @@
         <v>37562</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37590</v>
       </c>
@@ -4114,7 +4146,7 @@
         <v>37583</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37621</v>
       </c>
@@ -4134,7 +4166,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="48" t="s">
         <v>101</v>
       </c>
@@ -4152,7 +4184,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37652</v>
       </c>
@@ -4172,7 +4204,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37680</v>
       </c>
@@ -4192,7 +4224,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37711</v>
       </c>
@@ -4218,7 +4250,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4237,7 +4269,7 @@
         <v>37716</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37741</v>
       </c>
@@ -4263,7 +4295,7 @@
         <v>37727</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37772</v>
       </c>
@@ -4289,7 +4321,7 @@
         <v>37744</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37802</v>
       </c>
@@ -4309,7 +4341,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37833</v>
       </c>
@@ -4335,7 +4367,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -4354,7 +4386,7 @@
         <v>37824</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>56</v>
@@ -4373,7 +4405,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37864</v>
       </c>
@@ -4399,7 +4431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37894</v>
       </c>
@@ -4425,7 +4457,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>47</v>
@@ -4444,7 +4476,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37925</v>
       </c>
@@ -4470,7 +4502,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4489,7 +4521,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37955</v>
       </c>
@@ -4509,7 +4541,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37986</v>
       </c>
@@ -4529,7 +4561,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="48" t="s">
         <v>106</v>
       </c>
@@ -4547,7 +4579,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38017</v>
       </c>
@@ -4573,7 +4605,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38046</v>
       </c>
@@ -4599,7 +4631,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38077</v>
       </c>
@@ -4625,7 +4657,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>111</v>
@@ -4646,7 +4678,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38107</v>
       </c>
@@ -4674,7 +4706,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>113</v>
@@ -4691,7 +4723,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38138</v>
       </c>
@@ -4711,7 +4743,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38168</v>
       </c>
@@ -4731,7 +4763,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>38199</v>
       </c>
@@ -4751,7 +4783,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38230</v>
       </c>
@@ -4771,7 +4803,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38260</v>
       </c>
@@ -4791,7 +4823,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38291</v>
       </c>
@@ -4811,7 +4843,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38321</v>
       </c>
@@ -4831,7 +4863,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38352</v>
       </c>
@@ -4851,7 +4883,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="48" t="s">
         <v>117</v>
       </c>
@@ -4869,7 +4901,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38383</v>
       </c>
@@ -4893,7 +4925,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>118</v>
@@ -4910,7 +4942,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38411</v>
       </c>
@@ -4936,7 +4968,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38442</v>
       </c>
@@ -4962,7 +4994,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>120</v>
@@ -4981,7 +5013,7 @@
         <v>38443</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>121</v>
@@ -4998,7 +5030,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38472</v>
       </c>
@@ -5024,7 +5056,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>120</v>
@@ -5043,7 +5075,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -5062,7 +5094,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -5081,7 +5113,7 @@
         <v>38470</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38503</v>
       </c>
@@ -5107,7 +5139,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38533</v>
       </c>
@@ -5133,7 +5165,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -5152,7 +5184,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38564</v>
       </c>
@@ -5178,7 +5210,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>52</v>
@@ -5197,7 +5229,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38595</v>
       </c>
@@ -5223,7 +5255,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38625</v>
       </c>
@@ -5249,7 +5281,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>120</v>
@@ -5268,7 +5300,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -5287,7 +5319,7 @@
         <v>38618</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38656</v>
       </c>
@@ -5313,7 +5345,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38686</v>
       </c>
@@ -5339,7 +5371,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>127</v>
@@ -5358,7 +5390,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>38717</v>
       </c>
@@ -5378,7 +5410,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="48" t="s">
         <v>131</v>
       </c>
@@ -5396,7 +5428,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38748</v>
       </c>
@@ -5422,7 +5454,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>81</v>
@@ -5441,7 +5473,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>132</v>
@@ -5458,7 +5490,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38776</v>
       </c>
@@ -5484,7 +5516,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -5501,7 +5533,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38807</v>
       </c>
@@ -5525,7 +5557,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>46</v>
@@ -5544,7 +5576,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38837</v>
       </c>
@@ -5568,7 +5600,7 @@
         <v>38824</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38868</v>
       </c>
@@ -5596,7 +5628,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>56</v>
@@ -5615,7 +5647,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>136</v>
@@ -5632,7 +5664,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38898</v>
       </c>
@@ -5654,7 +5686,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>38929</v>
       </c>
@@ -5678,7 +5710,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38960</v>
       </c>
@@ -5706,7 +5738,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5724,7 +5756,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>38990</v>
       </c>
@@ -5750,7 +5782,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5770,7 +5802,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39021</v>
       </c>
@@ -5796,7 +5828,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -5820,7 +5852,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39051</v>
       </c>
@@ -5846,7 +5878,7 @@
         <v>39076</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -5866,7 +5898,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39082</v>
       </c>
@@ -5890,7 +5922,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="48" t="s">
         <v>144</v>
       </c>
@@ -5908,7 +5940,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39113</v>
       </c>
@@ -5932,7 +5964,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39141</v>
       </c>
@@ -5958,7 +5990,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>118</v>
@@ -5975,7 +6007,7 @@
         <v>39119</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39172</v>
       </c>
@@ -6001,7 +6033,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39202</v>
       </c>
@@ -6029,7 +6061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39233</v>
       </c>
@@ -6057,7 +6089,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>118</v>
@@ -6074,7 +6106,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39263</v>
       </c>
@@ -6100,7 +6132,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39294</v>
       </c>
@@ -6120,7 +6152,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39325</v>
       </c>
@@ -6146,7 +6178,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>52</v>
@@ -6165,7 +6197,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39355</v>
       </c>
@@ -6191,7 +6223,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39386</v>
       </c>
@@ -6217,7 +6249,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39416</v>
       </c>
@@ -6243,7 +6275,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>46</v>
@@ -6262,7 +6294,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39447</v>
       </c>
@@ -6282,7 +6314,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="48" t="s">
         <v>150</v>
       </c>
@@ -6300,7 +6332,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39478</v>
       </c>
@@ -6320,7 +6352,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39507</v>
       </c>
@@ -6340,7 +6372,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39538</v>
       </c>
@@ -6360,7 +6392,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39568</v>
       </c>
@@ -6384,7 +6416,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>118</v>
@@ -6401,7 +6433,7 @@
         <v>39554</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39599</v>
       </c>
@@ -6427,7 +6459,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -6444,7 +6476,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>39629</v>
       </c>
@@ -6468,7 +6500,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39660</v>
       </c>
@@ -6494,7 +6526,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39691</v>
       </c>
@@ -6520,7 +6552,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39721</v>
       </c>
@@ -6546,7 +6578,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39752</v>
       </c>
@@ -6572,7 +6604,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>39782</v>
       </c>
@@ -6592,7 +6624,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39813</v>
       </c>
@@ -6612,7 +6644,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="48" t="s">
         <v>155</v>
       </c>
@@ -6630,7 +6662,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>39844</v>
       </c>
@@ -6650,7 +6682,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39872</v>
       </c>
@@ -6674,7 +6706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>39903</v>
       </c>
@@ -6700,7 +6732,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39933</v>
       </c>
@@ -6726,7 +6758,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>157</v>
@@ -6743,7 +6775,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39964</v>
       </c>
@@ -6767,7 +6799,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -6784,7 +6816,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39994</v>
       </c>
@@ -6810,7 +6842,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>159</v>
@@ -6827,7 +6859,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>40025</v>
       </c>
@@ -6853,7 +6885,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -6872,7 +6904,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>46</v>
@@ -6891,7 +6923,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -6910,7 +6942,7 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -6929,7 +6961,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>160</v>
@@ -6946,7 +6978,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40056</v>
       </c>
@@ -6970,7 +7002,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40086</v>
       </c>
@@ -6996,7 +7028,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>166</v>
@@ -7013,7 +7045,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40117</v>
       </c>
@@ -7039,7 +7071,7 @@
         <v>40092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -7058,7 +7090,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>46</v>
@@ -7077,7 +7109,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7094,7 +7126,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40147</v>
       </c>
@@ -7120,7 +7152,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>168</v>
@@ -7137,7 +7169,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40178</v>
       </c>
@@ -7161,7 +7193,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>172</v>
       </c>
@@ -7179,7 +7211,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40209</v>
       </c>
@@ -7205,7 +7237,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>173</v>
@@ -7222,7 +7254,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40237</v>
       </c>
@@ -7246,7 +7278,7 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>174</v>
@@ -7263,7 +7295,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40268</v>
       </c>
@@ -7289,7 +7321,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>46</v>
@@ -7308,7 +7340,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>118</v>
@@ -7325,7 +7357,7 @@
         <v>40279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -7344,7 +7376,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40298</v>
       </c>
@@ -7370,7 +7402,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -7389,7 +7421,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>178</v>
@@ -7406,7 +7438,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="49"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40329</v>
       </c>
@@ -7432,7 +7464,7 @@
         <v>40324</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>46</v>
@@ -7451,7 +7483,7 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>46</v>
@@ -7470,7 +7502,7 @@
         <v>40325</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>179</v>
@@ -7487,7 +7519,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40359</v>
       </c>
@@ -7513,7 +7545,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7532,7 +7564,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>46</v>
@@ -7551,7 +7583,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>118</v>
@@ -7568,7 +7600,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>46</v>
@@ -7587,7 +7619,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>180</v>
@@ -7604,7 +7636,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40390</v>
       </c>
@@ -7630,7 +7662,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>181</v>
@@ -7647,7 +7679,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40421</v>
       </c>
@@ -7673,7 +7705,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -7692,7 +7724,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>120</v>
@@ -7711,7 +7743,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>182</v>
@@ -7728,7 +7760,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40451</v>
       </c>
@@ -7754,7 +7786,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>183</v>
@@ -7771,7 +7803,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>40482</v>
       </c>
@@ -7797,7 +7829,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -7816,7 +7848,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>185</v>
@@ -7833,7 +7865,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40512</v>
       </c>
@@ -7859,7 +7891,7 @@
         <v>40499</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>186</v>
@@ -7876,7 +7908,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>40543</v>
       </c>
@@ -7902,7 +7934,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>46</v>
@@ -7924,7 +7956,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>187</v>
@@ -7944,7 +7976,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="48">
         <v>2039</v>
       </c>
@@ -7962,7 +7994,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40574</v>
       </c>
@@ -7986,7 +8018,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>132</v>
@@ -8003,7 +8035,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40602</v>
       </c>
@@ -8029,7 +8061,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>120</v>
@@ -8048,7 +8080,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>132</v>
@@ -8065,7 +8097,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>40633</v>
       </c>
@@ -8089,7 +8121,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>188</v>
@@ -8106,7 +8138,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>40663</v>
       </c>
@@ -8132,7 +8164,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>189</v>
@@ -8149,7 +8181,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>40694</v>
       </c>
@@ -8175,7 +8207,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>50</v>
@@ -8194,7 +8226,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>118</v>
@@ -8211,7 +8243,7 @@
         <v>40715</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>191</v>
@@ -8228,7 +8260,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>40724</v>
       </c>
@@ -8252,7 +8284,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>40755</v>
       </c>
@@ -8278,7 +8310,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>120</v>
@@ -8297,7 +8329,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>50</v>
@@ -8316,7 +8348,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>193</v>
@@ -8333,7 +8365,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>40786</v>
       </c>
@@ -8359,7 +8391,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>40816</v>
       </c>
@@ -8385,7 +8417,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>118</v>
@@ -8402,7 +8434,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -8419,7 +8451,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>40847</v>
       </c>
@@ -8445,7 +8477,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>196</v>
@@ -8462,7 +8494,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>40877</v>
       </c>
@@ -8488,7 +8520,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>194</v>
@@ -8505,7 +8537,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>40908</v>
       </c>
@@ -8529,7 +8561,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="48">
         <v>2039</v>
       </c>
@@ -8547,7 +8579,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>40939</v>
       </c>
@@ -8571,7 +8603,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="49"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>40968</v>
       </c>
@@ -8595,7 +8627,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>118</v>
@@ -8612,7 +8644,7 @@
         <v>41015</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>200</v>
@@ -8629,7 +8661,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>40999</v>
       </c>
@@ -8653,7 +8685,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41029</v>
       </c>
@@ -8677,7 +8709,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41060</v>
       </c>
@@ -8703,7 +8735,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>81</v>
@@ -8722,7 +8754,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>118</v>
@@ -8739,7 +8771,7 @@
         <v>41080</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>203</v>
@@ -8756,7 +8788,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41090</v>
       </c>
@@ -8782,7 +8814,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>204</v>
@@ -8799,7 +8831,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41121</v>
       </c>
@@ -8825,7 +8857,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>205</v>
@@ -8842,7 +8874,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41152</v>
       </c>
@@ -8868,7 +8900,7 @@
         <v>41131</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>206</v>
@@ -8885,7 +8917,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41182</v>
       </c>
@@ -8911,7 +8943,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>50</v>
@@ -8930,7 +8962,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>207</v>
@@ -8947,7 +8979,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>41213</v>
       </c>
@@ -8973,7 +9005,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -8992,7 +9024,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>208</v>
@@ -9009,7 +9041,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41243</v>
       </c>
@@ -9035,7 +9067,7 @@
         <v>41242</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -9054,7 +9086,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>212</v>
@@ -9071,7 +9103,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>41274</v>
       </c>
@@ -9097,7 +9129,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9119,7 +9151,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>213</v>
@@ -9139,7 +9171,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>215</v>
       </c>
@@ -9157,7 +9189,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>41305</v>
       </c>
@@ -9181,7 +9213,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>41333</v>
       </c>
@@ -9205,7 +9237,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>46</v>
@@ -9224,7 +9256,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9243,7 +9275,7 @@
         <v>41338</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41364</v>
       </c>
@@ -9269,7 +9301,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>118</v>
@@ -9286,7 +9318,7 @@
         <v>41380</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41394</v>
       </c>
@@ -9310,7 +9342,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>41425</v>
       </c>
@@ -9336,7 +9368,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>118</v>
@@ -9353,7 +9385,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>218</v>
@@ -9370,7 +9402,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>41455</v>
       </c>
@@ -9394,7 +9426,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>41486</v>
       </c>
@@ -9420,7 +9452,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41517</v>
       </c>
@@ -9446,7 +9478,7 @@
         <v>41491</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>120</v>
@@ -9465,7 +9497,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9484,7 +9516,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41547</v>
       </c>
@@ -9510,7 +9542,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>81</v>
@@ -9529,7 +9561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>41578</v>
       </c>
@@ -9553,7 +9585,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>81</v>
@@ -9572,7 +9604,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41608</v>
       </c>
@@ -9598,7 +9630,7 @@
         <v>41611</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>120</v>
@@ -9617,7 +9649,7 @@
         <v>41603</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>120</v>
@@ -9634,7 +9666,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>41639</v>
       </c>
@@ -9660,7 +9692,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>120</v>
@@ -9682,7 +9714,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -9704,7 +9736,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="48" t="s">
         <v>224</v>
       </c>
@@ -9722,7 +9754,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>41670</v>
       </c>
@@ -9746,7 +9778,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>41698</v>
       </c>
@@ -9770,7 +9802,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>41729</v>
       </c>
@@ -9796,7 +9828,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>118</v>
@@ -9813,7 +9845,7 @@
         <v>41745</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>120</v>
@@ -9832,7 +9864,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>219</v>
@@ -9849,7 +9881,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>41759</v>
       </c>
@@ -9873,7 +9905,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>41790</v>
       </c>
@@ -9899,7 +9931,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>118</v>
@@ -9916,7 +9948,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>226</v>
@@ -9933,7 +9965,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>41820</v>
       </c>
@@ -9957,7 +9989,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>41851</v>
       </c>
@@ -9981,7 +10013,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>41882</v>
       </c>
@@ -10007,7 +10039,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>229</v>
@@ -10024,7 +10056,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>41912</v>
       </c>
@@ -10048,7 +10080,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>41943</v>
       </c>
@@ -10074,7 +10106,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>46</v>
@@ -10093,7 +10125,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>231</v>
@@ -10110,7 +10142,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>41973</v>
       </c>
@@ -10136,7 +10168,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>232</v>
@@ -10153,7 +10185,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>42004</v>
       </c>
@@ -10177,7 +10209,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="48" t="s">
         <v>235</v>
       </c>
@@ -10195,7 +10227,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>42035</v>
       </c>
@@ -10219,7 +10251,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42063</v>
       </c>
@@ -10245,7 +10277,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>118</v>
@@ -10262,7 +10294,7 @@
         <v>42062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>236</v>
@@ -10279,7 +10311,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>42094</v>
       </c>
@@ -10303,7 +10335,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42124</v>
       </c>
@@ -10327,7 +10359,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>46</v>
@@ -10346,7 +10378,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>50</v>
@@ -10365,7 +10397,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>67</v>
@@ -10384,7 +10416,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>239</v>
@@ -10401,7 +10433,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>42155</v>
       </c>
@@ -10427,7 +10459,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>118</v>
@@ -10444,7 +10476,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>238</v>
@@ -10461,7 +10493,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>42185</v>
       </c>
@@ -10485,7 +10517,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42216</v>
       </c>
@@ -10509,7 +10541,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42247</v>
       </c>
@@ -10529,7 +10561,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42277</v>
       </c>
@@ -10553,7 +10585,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>42308</v>
       </c>
@@ -10579,7 +10611,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>132</v>
@@ -10596,7 +10628,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>42338</v>
       </c>
@@ -10622,7 +10654,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>42369</v>
       </c>
@@ -10646,7 +10678,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="48" t="s">
         <v>246</v>
       </c>
@@ -10664,7 +10696,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42400</v>
       </c>
@@ -10684,7 +10716,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>42429</v>
       </c>
@@ -10708,7 +10740,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42460</v>
       </c>
@@ -10728,7 +10760,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>42490</v>
       </c>
@@ -10754,7 +10786,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>118</v>
@@ -10771,7 +10803,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>132</v>
@@ -10788,7 +10820,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>42521</v>
       </c>
@@ -10808,7 +10840,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>42551</v>
       </c>
@@ -10832,7 +10864,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>47</v>
@@ -10851,7 +10883,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42582</v>
       </c>
@@ -10875,7 +10907,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42613</v>
       </c>
@@ -10901,7 +10933,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>132</v>
@@ -10918,7 +10950,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42643</v>
       </c>
@@ -10942,7 +10974,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>31</v>
       </c>
@@ -10963,7 +10995,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42674</v>
       </c>
@@ -10989,7 +11021,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>132</v>
@@ -11006,7 +11038,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>42704</v>
       </c>
@@ -11026,7 +11058,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>42735</v>
       </c>
@@ -11052,7 +11084,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="48" t="s">
         <v>251</v>
       </c>
@@ -11070,7 +11102,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42766</v>
       </c>
@@ -11090,7 +11122,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42794</v>
       </c>
@@ -11116,7 +11148,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>252</v>
@@ -11133,7 +11165,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>253</v>
@@ -11152,7 +11184,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>132</v>
@@ -11169,7 +11201,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>42825</v>
       </c>
@@ -11195,7 +11227,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11214,7 +11246,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42855</v>
       </c>
@@ -11234,7 +11266,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>42886</v>
       </c>
@@ -11260,7 +11292,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>42916</v>
       </c>
@@ -11280,7 +11312,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>42947</v>
       </c>
@@ -11300,7 +11332,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>42978</v>
       </c>
@@ -11326,7 +11358,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>43008</v>
       </c>
@@ -11346,7 +11378,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43039</v>
       </c>
@@ -11372,7 +11404,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43069</v>
       </c>
@@ -11398,7 +11430,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43100</v>
       </c>
@@ -11418,7 +11450,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="48" t="s">
         <v>259</v>
       </c>
@@ -11436,7 +11468,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>43131</v>
       </c>
@@ -11456,7 +11488,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>43159</v>
       </c>
@@ -11482,7 +11514,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -11501,7 +11533,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43190</v>
       </c>
@@ -11521,7 +11553,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43220</v>
       </c>
@@ -11545,7 +11577,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43251</v>
       </c>
@@ -11565,7 +11597,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43281</v>
       </c>
@@ -11591,7 +11623,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>47</v>
@@ -11610,7 +11642,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11629,7 +11661,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43312</v>
       </c>
@@ -11655,7 +11687,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43343</v>
       </c>
@@ -11681,7 +11713,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>43373</v>
       </c>
@@ -11701,7 +11733,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>43404</v>
       </c>
@@ -11727,7 +11759,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>118</v>
@@ -11744,7 +11776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43434</v>
       </c>
@@ -11764,7 +11796,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>43465</v>
       </c>
@@ -11784,7 +11816,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="48" t="s">
         <v>266</v>
       </c>
@@ -11802,7 +11834,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43496</v>
       </c>
@@ -11822,7 +11854,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43524</v>
       </c>
@@ -11842,7 +11874,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>43555</v>
       </c>
@@ -11862,7 +11894,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43585</v>
       </c>
@@ -11888,7 +11920,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>118</v>
@@ -11905,7 +11937,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>118</v>
@@ -11922,7 +11954,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>43616</v>
       </c>
@@ -11948,7 +11980,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43646</v>
       </c>
@@ -11968,7 +12000,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43677</v>
       </c>
@@ -11988,7 +12020,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>43708</v>
       </c>
@@ -12008,7 +12040,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>43738</v>
       </c>
@@ -12028,7 +12060,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43769</v>
       </c>
@@ -12054,7 +12086,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>73</v>
@@ -12073,7 +12105,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>43799</v>
       </c>
@@ -12093,7 +12125,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43830</v>
       </c>
@@ -12113,7 +12145,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="48" t="s">
         <v>271</v>
       </c>
@@ -12131,7 +12163,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43861</v>
       </c>
@@ -12155,7 +12187,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>273</v>
@@ -12172,7 +12204,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>43890</v>
       </c>
@@ -12192,7 +12224,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>43921</v>
       </c>
@@ -12212,7 +12244,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43951</v>
       </c>
@@ -12232,7 +12264,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>43982</v>
       </c>
@@ -12252,7 +12284,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>44012</v>
       </c>
@@ -12272,7 +12304,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>44043</v>
       </c>
@@ -12292,7 +12324,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44074</v>
       </c>
@@ -12312,7 +12344,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44104</v>
       </c>
@@ -12332,7 +12364,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44135</v>
       </c>
@@ -12356,7 +12388,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44165</v>
       </c>
@@ -12376,7 +12408,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44196</v>
       </c>
@@ -12402,7 +12434,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>275</v>
@@ -12422,7 +12454,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="48" t="s">
         <v>278</v>
       </c>
@@ -12440,7 +12472,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44227</v>
       </c>
@@ -12464,7 +12496,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44255</v>
       </c>
@@ -12484,7 +12516,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44286</v>
       </c>
@@ -12504,7 +12536,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44316</v>
       </c>
@@ -12524,7 +12556,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>44347</v>
       </c>
@@ -12544,7 +12576,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44377</v>
       </c>
@@ -12564,7 +12596,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44408</v>
       </c>
@@ -12584,7 +12616,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>44439</v>
       </c>
@@ -12604,7 +12636,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44469</v>
       </c>
@@ -12624,7 +12656,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44500</v>
       </c>
@@ -12650,7 +12682,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44530</v>
       </c>
@@ -12670,7 +12702,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44561</v>
       </c>
@@ -12696,7 +12728,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="48" t="s">
         <v>280</v>
       </c>
@@ -12714,7 +12746,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>44592</v>
       </c>
@@ -12734,7 +12766,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>44620</v>
       </c>
@@ -12758,7 +12790,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44651</v>
       </c>
@@ -12784,7 +12816,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>44681</v>
       </c>
@@ -12808,7 +12840,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>79</v>
@@ -12830,7 +12862,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>294</v>
@@ -12850,7 +12882,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>44712</v>
       </c>
@@ -12870,7 +12902,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44742</v>
       </c>
@@ -12890,7 +12922,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>44773</v>
       </c>
@@ -12910,7 +12942,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44804</v>
       </c>
@@ -12934,7 +12966,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44834</v>
       </c>
@@ -12954,7 +12986,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>44865</v>
       </c>
@@ -12980,7 +13012,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>290</v>
@@ -13002,7 +13034,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44895</v>
       </c>
@@ -13026,7 +13058,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44926</v>
       </c>
@@ -13052,7 +13084,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>290</v>
@@ -13074,7 +13106,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>291</v>
@@ -13094,7 +13126,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="49"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>282</v>
       </c>
@@ -13112,7 +13144,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44957</v>
       </c>
@@ -13132,7 +13164,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>44985</v>
       </c>
@@ -13156,37 +13188,39 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A521" s="40">
-        <v>45016</v>
-      </c>
-      <c r="B521" s="20"/>
-      <c r="C521" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D521" s="39"/>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A521" s="40"/>
+      <c r="B521" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C521" s="13"/>
+      <c r="D521" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G521" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
-    </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K521" s="49"/>
+    </row>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B522" s="20" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="C522" s="13">
         <v>1.25</v>
       </c>
-      <c r="D522" s="39"/>
+      <c r="D522" s="39">
+        <v>3</v>
+      </c>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
       <c r="G522" s="42">
@@ -13197,83 +13231,79 @@
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
       <c r="K522" s="20" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A523" s="40">
-        <v>45077</v>
-      </c>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C523" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D523" s="39"/>
+        <v>309</v>
+      </c>
+      <c r="C523" s="13"/>
+      <c r="D523" s="39">
+        <v>1.75</v>
+      </c>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H523" s="39">
-        <v>3</v>
-      </c>
+      <c r="G523" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
-      <c r="K523" s="20" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A524" s="40"/>
+      <c r="K523" s="20"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A524" s="40">
+        <v>45046</v>
+      </c>
       <c r="B524" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C524" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H524" s="39">
-        <v>2</v>
-      </c>
+      <c r="G524" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
       <c r="K524" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A525" s="40">
-        <v>45107</v>
-      </c>
-      <c r="B525" s="20"/>
-      <c r="C525" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D525" s="39"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A525" s="40"/>
+      <c r="B525" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E525" s="9"/>
       <c r="F525" s="20"/>
-      <c r="G525" s="42">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
-        <v>45138</v>
+        <v>45077</v>
       </c>
       <c r="B526" s="20" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="C526" s="13">
         <v>1.25</v>
@@ -13285,42 +13315,50 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H526" s="39"/>
+      <c r="H526" s="39">
+        <v>3</v>
+      </c>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="49">
-        <v>45121</v>
-      </c>
-    </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A527" s="40">
-        <v>45169</v>
-      </c>
-      <c r="B527" s="20"/>
-      <c r="C527" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="K526" s="20" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A527" s="40"/>
+      <c r="B527" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9"/>
       <c r="F527" s="20"/>
-      <c r="G527" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H527" s="39"/>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="39">
+        <v>2</v>
+      </c>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
-    </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K527" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
-        <v>45199</v>
-      </c>
-      <c r="B528" s="20"/>
+        <v>45107</v>
+      </c>
+      <c r="B528" s="20" t="s">
+        <v>305</v>
+      </c>
       <c r="C528" s="13">
         <v>1.25</v>
       </c>
-      <c r="D528" s="39"/>
+      <c r="D528" s="39">
+        <v>17</v>
+      </c>
       <c r="E528" s="9"/>
       <c r="F528" s="20"/>
       <c r="G528" s="42">
@@ -13330,21 +13368,21 @@
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20"/>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K528" s="20" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
-        <v>45230</v>
+        <v>45138</v>
       </c>
       <c r="B529" s="20" t="s">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="C529" s="13">
         <v>1.25</v>
       </c>
-      <c r="D529" s="39">
-        <v>2</v>
-      </c>
+      <c r="D529" s="39"/>
       <c r="E529" s="9"/>
       <c r="F529" s="20"/>
       <c r="G529" s="42">
@@ -13354,41 +13392,43 @@
       <c r="H529" s="39"/>
       <c r="I529" s="9"/>
       <c r="J529" s="11"/>
-      <c r="K529" s="20" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A530" s="40"/>
-      <c r="B530" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C530" s="13"/>
+      <c r="K529" s="49">
+        <v>45121</v>
+      </c>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A530" s="40">
+        <v>45169</v>
+      </c>
+      <c r="B530" s="20"/>
+      <c r="C530" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D530" s="39"/>
       <c r="E530" s="9"/>
       <c r="F530" s="20"/>
-      <c r="G530" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H530" s="39">
-        <v>1</v>
-      </c>
+      <c r="G530" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H530" s="39"/>
       <c r="I530" s="9"/>
       <c r="J530" s="11"/>
-      <c r="K530" s="49">
-        <v>45198</v>
-      </c>
-    </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K530" s="20"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
-        <v>45260</v>
-      </c>
-      <c r="B531" s="20"/>
+        <v>45199</v>
+      </c>
+      <c r="B531" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="C531" s="13">
         <v>1.25</v>
       </c>
-      <c r="D531" s="39"/>
+      <c r="D531" s="39">
+        <v>20</v>
+      </c>
       <c r="E531" s="9"/>
       <c r="F531" s="20"/>
       <c r="G531" s="42">
@@ -13398,97 +13438,117 @@
       <c r="H531" s="39"/>
       <c r="I531" s="9"/>
       <c r="J531" s="11"/>
-      <c r="K531" s="20"/>
-    </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K531" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
-        <v>45291</v>
+        <v>45230</v>
       </c>
       <c r="B532" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="C532" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="C532" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D532" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E532" s="9"/>
       <c r="F532" s="20"/>
-      <c r="G532" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G532" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H532" s="39"/>
       <c r="I532" s="9"/>
       <c r="J532" s="11"/>
       <c r="K532" s="20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39"/>
       <c r="E533" s="9"/>
       <c r="F533" s="20"/>
-      <c r="G533" s="42" t="str">
+      <c r="G533" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H533" s="39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I533" s="9"/>
       <c r="J533" s="11"/>
-      <c r="K533" s="20" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A534" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="B534" s="20"/>
+      <c r="K533" s="49">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A534" s="40"/>
+      <c r="B534" s="20" t="s">
+        <v>301</v>
+      </c>
       <c r="C534" s="13"/>
-      <c r="D534" s="39"/>
+      <c r="D534" s="39">
+        <v>19</v>
+      </c>
       <c r="E534" s="9"/>
       <c r="F534" s="20"/>
-      <c r="G534" s="42" t="str">
+      <c r="G534" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H534" s="39"/>
       <c r="I534" s="9"/>
       <c r="J534" s="11"/>
-      <c r="K534" s="20"/>
-    </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K534" s="49" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
-        <v>45322</v>
-      </c>
-      <c r="B535" s="20"/>
-      <c r="C535" s="13"/>
-      <c r="D535" s="39"/>
+        <v>45260</v>
+      </c>
+      <c r="B535" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C535" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D535" s="39">
+        <v>12</v>
+      </c>
       <c r="E535" s="9"/>
       <c r="F535" s="20"/>
-      <c r="G535" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G535" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H535" s="39"/>
       <c r="I535" s="9"/>
       <c r="J535" s="11"/>
-      <c r="K535" s="20"/>
-    </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K535" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B536" s="20"/>
+        <v>45291</v>
+      </c>
+      <c r="B536" s="20" t="s">
+        <v>275</v>
+      </c>
       <c r="C536" s="13"/>
-      <c r="D536" s="39"/>
+      <c r="D536" s="39">
+        <v>3</v>
+      </c>
       <c r="E536" s="9"/>
       <c r="F536" s="20"/>
       <c r="G536" s="42" t="str">
@@ -13498,13 +13558,15 @@
       <c r="H536" s="39"/>
       <c r="I536" s="9"/>
       <c r="J536" s="11"/>
-      <c r="K536" s="20"/>
-    </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A537" s="40">
-        <v>45382</v>
-      </c>
-      <c r="B537" s="20"/>
+      <c r="K536" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A537" s="40"/>
+      <c r="B537" s="20" t="s">
+        <v>95</v>
+      </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
       <c r="E537" s="9"/>
@@ -13513,14 +13575,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H537" s="39"/>
+      <c r="H537" s="39">
+        <v>6</v>
+      </c>
       <c r="I537" s="9"/>
       <c r="J537" s="11"/>
-      <c r="K537" s="20"/>
-    </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A538" s="40">
-        <v>45412</v>
+      <c r="K537" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A538" s="48" t="s">
+        <v>295</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13536,9 +13602,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
-        <v>45443</v>
+        <v>45322</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13554,9 +13620,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
-        <v>45473</v>
+        <v>45351</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13572,9 +13638,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
-        <v>45504</v>
+        <v>45382</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -13590,9 +13656,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
-        <v>45535</v>
+        <v>45412</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -13608,9 +13674,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -13626,9 +13692,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
-        <v>45596</v>
+        <v>45473</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -13644,8 +13710,10 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A545" s="40"/>
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A545" s="40">
+        <v>45504</v>
+      </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
@@ -13660,8 +13728,10 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A546" s="40"/>
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A546" s="40">
+        <v>45535</v>
+      </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
       <c r="D546" s="39"/>
@@ -13676,8 +13746,10 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A547" s="40"/>
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A547" s="40">
+        <v>45565</v>
+      </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
       <c r="D547" s="39"/>
@@ -13692,8 +13764,10 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A548" s="40"/>
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A548" s="40">
+        <v>45596</v>
+      </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
       <c r="D548" s="39"/>
@@ -13708,7 +13782,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13724,7 +13798,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13740,7 +13814,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13756,7 +13830,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13772,7 +13846,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13788,7 +13862,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13804,7 +13878,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13820,7 +13894,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13836,7 +13910,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13852,7 +13926,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13868,7 +13942,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13884,7 +13958,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13900,7 +13974,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13916,7 +13990,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -13932,7 +14006,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -13948,7 +14022,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -13964,7 +14038,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -13980,7 +14054,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -13996,7 +14070,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14012,7 +14086,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14028,7 +14102,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14044,7 +14118,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14060,7 +14134,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14076,7 +14150,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14092,7 +14166,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14108,7 +14182,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14124,7 +14198,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14140,7 +14214,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14156,7 +14230,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14172,7 +14246,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14188,7 +14262,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14204,7 +14278,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14220,7 +14294,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14236,7 +14310,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14252,7 +14326,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14268,7 +14342,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14284,7 +14358,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14300,7 +14374,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14316,7 +14390,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14332,7 +14406,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14348,7 +14422,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14364,7 +14438,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14380,7 +14454,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14396,7 +14470,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14412,7 +14486,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14428,21 +14502,85 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="41"/>
-      <c r="B594" s="15"/>
-      <c r="C594" s="42"/>
-      <c r="D594" s="43"/>
-      <c r="E594" s="51"/>
-      <c r="F594" s="15"/>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40"/>
+      <c r="B594" s="20"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="39"/>
+      <c r="E594" s="9"/>
+      <c r="F594" s="20"/>
       <c r="G594" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H594" s="43"/>
-      <c r="I594" s="51"/>
-      <c r="J594" s="12"/>
-      <c r="K594" s="15"/>
+      <c r="H594" s="39"/>
+      <c r="I594" s="9"/>
+      <c r="J594" s="11"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="40"/>
+      <c r="B595" s="20"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="39"/>
+      <c r="E595" s="9"/>
+      <c r="F595" s="20"/>
+      <c r="G595" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H595" s="39"/>
+      <c r="I595" s="9"/>
+      <c r="J595" s="11"/>
+      <c r="K595" s="20"/>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="40"/>
+      <c r="B596" s="20"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="39"/>
+      <c r="E596" s="9"/>
+      <c r="F596" s="20"/>
+      <c r="G596" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H596" s="39"/>
+      <c r="I596" s="9"/>
+      <c r="J596" s="11"/>
+      <c r="K596" s="20"/>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="40"/>
+      <c r="B597" s="20"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="39"/>
+      <c r="E597" s="9"/>
+      <c r="F597" s="20"/>
+      <c r="G597" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H597" s="39"/>
+      <c r="I597" s="9"/>
+      <c r="J597" s="11"/>
+      <c r="K597" s="20"/>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="41"/>
+      <c r="B598" s="15"/>
+      <c r="C598" s="42"/>
+      <c r="D598" s="43"/>
+      <c r="E598" s="51"/>
+      <c r="F598" s="15"/>
+      <c r="G598" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H598" s="43"/>
+      <c r="I598" s="51"/>
+      <c r="J598" s="12"/>
+      <c r="K598" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14459,10 +14597,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14485,28 +14623,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14519,7 +14657,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14548,7 +14686,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>0.54200000000000004</v>
       </c>
@@ -14556,17 +14694,15 @@
         <v>0.54200000000000004</v>
       </c>
       <c r="D3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F3" s="11"/>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>3.3000000000000015E-2</v>
+        <v>1.75</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">
@@ -14578,17 +14714,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14609,7 +14745,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14636,7 +14772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14662,7 +14798,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14688,7 +14824,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14714,7 +14850,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14740,7 +14876,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14766,7 +14902,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14792,7 +14928,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14818,7 +14954,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14838,7 +14974,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14858,7 +14994,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14878,7 +15014,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14899,7 +15035,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14920,7 +15056,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14941,7 +15077,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14962,7 +15098,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14983,7 +15119,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15004,7 +15140,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15025,7 +15161,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15046,7 +15182,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15067,7 +15203,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15088,7 +15224,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15109,7 +15245,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15130,7 +15266,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15151,7 +15287,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15172,7 +15308,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15193,7 +15329,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15214,7 +15350,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15235,7 +15371,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15256,7 +15392,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15277,7 +15413,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15298,7 +15434,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15307,7 +15443,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15316,7 +15452,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15325,7 +15461,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15334,7 +15470,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15343,7 +15479,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15352,7 +15488,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15361,7 +15497,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15370,7 +15506,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15379,7 +15515,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15388,7 +15524,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15397,7 +15533,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15406,7 +15542,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15415,7 +15551,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15424,7 +15560,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15433,7 +15569,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15442,7 +15578,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15451,7 +15587,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15460,7 +15596,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15469,7 +15605,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15478,7 +15614,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15487,7 +15623,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15496,7 +15632,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15505,7 +15641,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15514,7 +15650,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15523,7 +15659,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15532,7 +15668,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15541,7 +15677,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15550,7 +15686,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15559,7 +15695,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CCT/JAVIER, CARMELITA M..xlsx
+++ b/REGULAR/CCT/JAVIER, CARMELITA M..xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A28904-A429-4BE4-A94D-89330D1A7FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="310">
   <si>
     <t>PERIOD</t>
   </si>
@@ -968,7 +969,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1643,7 +1644,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1660,26 +1661,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K598"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K598" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K598" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1986,34 +1987,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K598"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4425" topLeftCell="A515" activePane="bottomLeft"/>
+      <pane ySplit="4428" topLeftCell="A533" activePane="bottomLeft"/>
       <selection activeCell="E8" sqref="E8"/>
-      <selection pane="bottomLeft" activeCell="E523" sqref="E523"/>
+      <selection pane="bottomLeft" activeCell="B541" sqref="B541"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2034,7 +2035,7 @@
       <c r="J2" s="54"/>
       <c r="K2" s="55"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2052,7 +2053,7 @@
       <c r="J3" s="56"/>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2074,7 +2075,7 @@
       <c r="J4" s="54"/>
       <c r="K4" s="55"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2082,7 +2083,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2095,7 +2096,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="52" t="s">
@@ -2112,7 +2113,7 @@
       <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2156,7 +2157,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-13.090000000000005</v>
+        <v>-11.840000000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2166,12 +2167,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>76.999999999999972</v>
+        <v>78.249999999999972</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>55</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35611</v>
       </c>
@@ -2213,7 +2214,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35642</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35673</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35703</v>
       </c>
@@ -2273,7 +2274,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35734</v>
       </c>
@@ -2293,7 +2294,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35764</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35795</v>
       </c>
@@ -2333,7 +2334,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
@@ -2351,7 +2352,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35826</v>
       </c>
@@ -2377,7 +2378,7 @@
         <v>36176</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>35854</v>
       </c>
@@ -2397,7 +2398,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>35885</v>
       </c>
@@ -2417,7 +2418,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>35915</v>
       </c>
@@ -2437,7 +2438,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>35946</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>36292</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>46</v>
@@ -2482,7 +2483,7 @@
         <v>36295</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>35976</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>36312</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36007</v>
       </c>
@@ -2528,7 +2529,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36038</v>
       </c>
@@ -2550,7 +2551,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>36038</v>
       </c>
@@ -2570,7 +2571,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36068</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>50</v>
@@ -2615,7 +2616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>36099</v>
       </c>
@@ -2639,7 +2640,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36129</v>
       </c>
@@ -2659,7 +2660,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36160</v>
       </c>
@@ -2683,7 +2684,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="48" t="s">
         <v>45</v>
       </c>
@@ -2701,7 +2702,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36191</v>
       </c>
@@ -2721,7 +2722,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36219</v>
       </c>
@@ -2741,7 +2742,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36250</v>
       </c>
@@ -2761,7 +2762,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36280</v>
       </c>
@@ -2781,7 +2782,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36311</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -2826,7 +2827,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>57</v>
@@ -2845,7 +2846,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>36341</v>
       </c>
@@ -2871,7 +2872,7 @@
         <v>36331</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36372</v>
       </c>
@@ -2891,7 +2892,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>36403</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>36393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>36433</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>36438</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>47</v>
@@ -2962,7 +2963,7 @@
         <v>36443</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>36464</v>
       </c>
@@ -2982,7 +2983,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36494</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -3027,7 +3028,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>36525</v>
       </c>
@@ -3053,7 +3054,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>62</v>
@@ -3073,7 +3074,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="48" t="s">
         <v>66</v>
       </c>
@@ -3091,7 +3092,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36556</v>
       </c>
@@ -3111,7 +3112,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>36585</v>
       </c>
@@ -3137,7 +3138,7 @@
         <v>36561</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>47</v>
@@ -3156,7 +3157,7 @@
         <v>36563</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>36616</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>36646</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>67</v>
@@ -3227,7 +3228,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>36677</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>36648</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>68</v>
@@ -3272,7 +3273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36707</v>
       </c>
@@ -3292,7 +3293,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>36738</v>
       </c>
@@ -3318,7 +3319,7 @@
         <v>36733</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>72</v>
@@ -3335,7 +3336,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>36769</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>36747</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>36799</v>
       </c>
@@ -3387,7 +3388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>36830</v>
       </c>
@@ -3407,7 +3408,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>36860</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>36891</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>36881</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="48" t="s">
         <v>76</v>
       </c>
@@ -3477,7 +3478,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>36922</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>49</v>
@@ -3522,7 +3523,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>36950</v>
       </c>
@@ -3542,7 +3543,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>36981</v>
       </c>
@@ -3562,7 +3563,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37011</v>
       </c>
@@ -3582,7 +3583,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37042</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>79</v>
@@ -3627,7 +3628,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>80</v>
@@ -3644,7 +3645,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37072</v>
       </c>
@@ -3670,7 +3671,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37103</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>82</v>
@@ -3715,7 +3716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37134</v>
       </c>
@@ -3741,7 +3742,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37164</v>
       </c>
@@ -3761,7 +3762,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37195</v>
       </c>
@@ -3787,7 +3788,7 @@
         <v>37192</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37225</v>
       </c>
@@ -3813,7 +3814,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37256</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="48" t="s">
         <v>91</v>
       </c>
@@ -3851,7 +3852,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>37287</v>
       </c>
@@ -3875,7 +3876,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37315</v>
       </c>
@@ -3901,7 +3902,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37346</v>
       </c>
@@ -3923,7 +3924,7 @@
         <v>37347</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37376</v>
       </c>
@@ -3945,7 +3946,7 @@
         <v>37362</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37407</v>
       </c>
@@ -3971,7 +3972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37437</v>
       </c>
@@ -3997,7 +3998,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37468</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>94</v>
@@ -4042,7 +4043,7 @@
         <v>37467</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37499</v>
       </c>
@@ -4068,7 +4069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37529</v>
       </c>
@@ -4094,7 +4095,7 @@
         <v>37511</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37560</v>
       </c>
@@ -4120,7 +4121,7 @@
         <v>37562</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>37590</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>37583</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>37621</v>
       </c>
@@ -4166,7 +4167,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="48" t="s">
         <v>101</v>
       </c>
@@ -4184,7 +4185,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37652</v>
       </c>
@@ -4204,7 +4205,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37680</v>
       </c>
@@ -4224,7 +4225,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37711</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>37693</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4269,7 +4270,7 @@
         <v>37716</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37741</v>
       </c>
@@ -4295,7 +4296,7 @@
         <v>37727</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>37772</v>
       </c>
@@ -4321,7 +4322,7 @@
         <v>37744</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37802</v>
       </c>
@@ -4341,7 +4342,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37833</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>46</v>
@@ -4386,7 +4387,7 @@
         <v>37824</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>56</v>
@@ -4405,7 +4406,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37864</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>37894</v>
       </c>
@@ -4457,7 +4458,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>47</v>
@@ -4476,7 +4477,7 @@
         <v>37888</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37925</v>
       </c>
@@ -4502,7 +4503,7 @@
         <v>37922</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>47</v>
@@ -4521,7 +4522,7 @@
         <v>37927</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37955</v>
       </c>
@@ -4541,7 +4542,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37986</v>
       </c>
@@ -4561,7 +4562,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="48" t="s">
         <v>106</v>
       </c>
@@ -4579,7 +4580,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>38017</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>38046</v>
       </c>
@@ -4631,7 +4632,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38077</v>
       </c>
@@ -4657,7 +4658,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>111</v>
@@ -4678,7 +4679,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>38107</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>113</v>
@@ -4723,7 +4724,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38138</v>
       </c>
@@ -4743,7 +4744,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38168</v>
       </c>
@@ -4763,7 +4764,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>38199</v>
       </c>
@@ -4783,7 +4784,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>38230</v>
       </c>
@@ -4803,7 +4804,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38260</v>
       </c>
@@ -4823,7 +4824,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38291</v>
       </c>
@@ -4843,7 +4844,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>38321</v>
       </c>
@@ -4863,7 +4864,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>38352</v>
       </c>
@@ -4883,7 +4884,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="48" t="s">
         <v>117</v>
       </c>
@@ -4901,7 +4902,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>38383</v>
       </c>
@@ -4925,7 +4926,7 @@
         <v>38370</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>118</v>
@@ -4942,7 +4943,7 @@
         <v>38383</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38411</v>
       </c>
@@ -4968,7 +4969,7 @@
         <v>38399</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>38442</v>
       </c>
@@ -4994,7 +4995,7 @@
         <v>38425</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>120</v>
@@ -5013,7 +5014,7 @@
         <v>38443</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>121</v>
@@ -5030,7 +5031,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>38472</v>
       </c>
@@ -5056,7 +5057,7 @@
         <v>38457</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>120</v>
@@ -5075,7 +5076,7 @@
         <v>38469</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>56</v>
@@ -5094,7 +5095,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>46</v>
@@ -5113,7 +5114,7 @@
         <v>38470</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>38503</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>38533</v>
       </c>
@@ -5165,7 +5166,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20" t="s">
         <v>120</v>
@@ -5184,7 +5185,7 @@
         <v>38523</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>38564</v>
       </c>
@@ -5210,7 +5211,7 @@
         <v>38544</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>52</v>
@@ -5229,7 +5230,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>38595</v>
       </c>
@@ -5255,7 +5256,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38625</v>
       </c>
@@ -5281,7 +5282,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>120</v>
@@ -5300,7 +5301,7 @@
         <v>38621</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>46</v>
@@ -5319,7 +5320,7 @@
         <v>38618</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38656</v>
       </c>
@@ -5345,7 +5346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38686</v>
       </c>
@@ -5371,7 +5372,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>127</v>
@@ -5390,7 +5391,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>38717</v>
       </c>
@@ -5410,7 +5411,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48" t="s">
         <v>131</v>
       </c>
@@ -5428,7 +5429,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38748</v>
       </c>
@@ -5454,7 +5455,7 @@
         <v>38719</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>81</v>
@@ -5473,7 +5474,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>132</v>
@@ -5490,7 +5491,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38776</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>51</v>
@@ -5533,7 +5534,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>38807</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>38797</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>46</v>
@@ -5576,7 +5577,7 @@
         <v>38803</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>38837</v>
       </c>
@@ -5600,7 +5601,7 @@
         <v>38824</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38868</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>56</v>
@@ -5647,7 +5648,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>136</v>
@@ -5664,7 +5665,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38898</v>
       </c>
@@ -5686,7 +5687,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>38929</v>
       </c>
@@ -5710,7 +5711,7 @@
       <c r="J170" s="12"/>
       <c r="K170" s="15"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38960</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5756,7 +5757,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <v>38990</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>38980</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>137</v>
@@ -5802,7 +5803,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <v>39021</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>46</v>
@@ -5852,7 +5853,7 @@
         <v>39013</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>39051</v>
       </c>
@@ -5878,7 +5879,7 @@
         <v>39076</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>138</v>
@@ -5898,7 +5899,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>39082</v>
       </c>
@@ -5922,7 +5923,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="48" t="s">
         <v>144</v>
       </c>
@@ -5940,7 +5941,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>39113</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>39108</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>39141</v>
       </c>
@@ -5990,7 +5991,7 @@
         <v>39116</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>118</v>
@@ -6007,7 +6008,7 @@
         <v>39119</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>39172</v>
       </c>
@@ -6033,7 +6034,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>39202</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>39233</v>
       </c>
@@ -6089,7 +6090,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>118</v>
@@ -6106,7 +6107,7 @@
         <v>39224</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>39263</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>39253</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>39294</v>
       </c>
@@ -6152,7 +6153,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>39325</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>52</v>
@@ -6197,7 +6198,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>39355</v>
       </c>
@@ -6223,7 +6224,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>39386</v>
       </c>
@@ -6249,7 +6250,7 @@
         <v>39386</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>39416</v>
       </c>
@@ -6275,7 +6276,7 @@
         <v>39402</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>46</v>
@@ -6294,7 +6295,7 @@
         <v>39419</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>39447</v>
       </c>
@@ -6314,7 +6315,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="48" t="s">
         <v>150</v>
       </c>
@@ -6332,7 +6333,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>39478</v>
       </c>
@@ -6352,7 +6353,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>39507</v>
       </c>
@@ -6372,7 +6373,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39538</v>
       </c>
@@ -6392,7 +6393,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <v>39568</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>39562</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>118</v>
@@ -6433,7 +6434,7 @@
         <v>39554</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>39599</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>50</v>
@@ -6476,7 +6477,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
         <v>39629</v>
       </c>
@@ -6500,7 +6501,7 @@
         <v>39619</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39660</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39691</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>39689</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>39721</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39752</v>
       </c>
@@ -6604,7 +6605,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>39782</v>
       </c>
@@ -6624,7 +6625,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39813</v>
       </c>
@@ -6644,7 +6645,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="48" t="s">
         <v>155</v>
       </c>
@@ -6662,7 +6663,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>39844</v>
       </c>
@@ -6682,7 +6683,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39872</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>39903</v>
       </c>
@@ -6732,7 +6733,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>39933</v>
       </c>
@@ -6758,7 +6759,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>157</v>
@@ -6775,7 +6776,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39964</v>
       </c>
@@ -6799,7 +6800,7 @@
         <v>39983</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>158</v>
@@ -6816,7 +6817,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>39994</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>39973</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>159</v>
@@ -6859,7 +6860,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>40025</v>
       </c>
@@ -6885,7 +6886,7 @@
         <v>39996</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>120</v>
@@ -6904,7 +6905,7 @@
         <v>40016</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>46</v>
@@ -6923,7 +6924,7 @@
         <v>40017</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>46</v>
@@ -6942,7 +6943,7 @@
         <v>40022</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>52</v>
@@ -6961,7 +6962,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>160</v>
@@ -6978,7 +6979,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>40056</v>
       </c>
@@ -7002,7 +7003,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>40086</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>40091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>166</v>
@@ -7045,7 +7046,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>40117</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>40092</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>67</v>
@@ -7090,7 +7091,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>46</v>
@@ -7109,7 +7110,7 @@
         <v>40094</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>167</v>
@@ -7126,7 +7127,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>40147</v>
       </c>
@@ -7152,7 +7153,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>168</v>
@@ -7169,7 +7170,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>40178</v>
       </c>
@@ -7193,7 +7194,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="48" t="s">
         <v>172</v>
       </c>
@@ -7211,7 +7212,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>40209</v>
       </c>
@@ -7237,7 +7238,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>173</v>
@@ -7254,7 +7255,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>40237</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>40235</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>174</v>
@@ -7295,7 +7296,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40268</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>40249</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>46</v>
@@ -7340,7 +7341,7 @@
         <v>40268</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>118</v>
@@ -7357,7 +7358,7 @@
         <v>40279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -7376,7 +7377,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <v>40298</v>
       </c>
@@ -7402,7 +7403,7 @@
         <v>40276</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>46</v>
@@ -7421,7 +7422,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40"/>
       <c r="B249" s="20" t="s">
         <v>178</v>
@@ -7438,7 +7439,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="49"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <v>40329</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>40324</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40"/>
       <c r="B251" s="20" t="s">
         <v>46</v>
@@ -7483,7 +7484,7 @@
         <v>40317</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>46</v>
@@ -7502,7 +7503,7 @@
         <v>40325</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>179</v>
@@ -7519,7 +7520,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>40359</v>
       </c>
@@ -7545,7 +7546,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>46</v>
@@ -7564,7 +7565,7 @@
         <v>40333</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>46</v>
@@ -7583,7 +7584,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>118</v>
@@ -7600,7 +7601,7 @@
         <v>40350</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>46</v>
@@ -7619,7 +7620,7 @@
         <v>40345</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>180</v>
@@ -7636,7 +7637,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>40390</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>40389</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>181</v>
@@ -7679,7 +7680,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40421</v>
       </c>
@@ -7705,7 +7706,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>46</v>
@@ -7724,7 +7725,7 @@
         <v>40406</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>120</v>
@@ -7743,7 +7744,7 @@
         <v>40421</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>182</v>
@@ -7760,7 +7761,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <v>40451</v>
       </c>
@@ -7786,7 +7787,7 @@
         <v>40452</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>183</v>
@@ -7803,7 +7804,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>40482</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>46</v>
@@ -7848,7 +7849,7 @@
         <v>40472</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>185</v>
@@ -7865,7 +7866,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40512</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>40499</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>186</v>
@@ -7908,7 +7909,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>40543</v>
       </c>
@@ -7934,7 +7935,7 @@
         <v>40533</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>46</v>
@@ -7956,7 +7957,7 @@
         <v>40542</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>187</v>
@@ -7976,7 +7977,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="48">
         <v>2039</v>
       </c>
@@ -7994,7 +7995,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40574</v>
       </c>
@@ -8018,7 +8019,7 @@
         <v>40561</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>132</v>
@@ -8035,7 +8036,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40602</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>40592</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>120</v>
@@ -8080,7 +8081,7 @@
         <v>40612</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>132</v>
@@ -8097,7 +8098,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>40633</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>40651</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>188</v>
@@ -8138,7 +8139,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <v>40663</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>40660</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>189</v>
@@ -8181,7 +8182,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <v>40694</v>
       </c>
@@ -8207,7 +8208,7 @@
         <v>40673</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>50</v>
@@ -8226,7 +8227,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>118</v>
@@ -8243,7 +8244,7 @@
         <v>40715</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>191</v>
@@ -8260,7 +8261,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="49"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <v>40724</v>
       </c>
@@ -8284,7 +8285,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>40755</v>
       </c>
@@ -8310,7 +8311,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>120</v>
@@ -8329,7 +8330,7 @@
         <v>40760</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>50</v>
@@ -8348,7 +8349,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>193</v>
@@ -8365,7 +8366,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <v>40786</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>40792</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>40816</v>
       </c>
@@ -8417,7 +8418,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>118</v>
@@ -8434,7 +8435,7 @@
         <v>40844</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>51</v>
@@ -8451,7 +8452,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>40847</v>
       </c>
@@ -8477,7 +8478,7 @@
         <v>40823</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>196</v>
@@ -8494,7 +8495,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <v>40877</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>40863</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>194</v>
@@ -8537,7 +8538,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>40908</v>
       </c>
@@ -8561,7 +8562,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="48">
         <v>2039</v>
       </c>
@@ -8579,7 +8580,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>40939</v>
       </c>
@@ -8603,7 +8604,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="49"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40968</v>
       </c>
@@ -8627,7 +8628,7 @@
         <v>40996</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>118</v>
@@ -8644,7 +8645,7 @@
         <v>41015</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>200</v>
@@ -8661,7 +8662,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="49"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40">
         <v>40999</v>
       </c>
@@ -8685,7 +8686,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <v>41029</v>
       </c>
@@ -8709,7 +8710,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41060</v>
       </c>
@@ -8735,7 +8736,7 @@
         <v>41040</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>81</v>
@@ -8754,7 +8755,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>118</v>
@@ -8771,7 +8772,7 @@
         <v>41080</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>203</v>
@@ -8788,7 +8789,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>41090</v>
       </c>
@@ -8814,7 +8815,7 @@
         <v>41089</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>204</v>
@@ -8831,7 +8832,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <v>41121</v>
       </c>
@@ -8857,7 +8858,7 @@
         <v>41116</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>205</v>
@@ -8874,7 +8875,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41152</v>
       </c>
@@ -8900,7 +8901,7 @@
         <v>41131</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>206</v>
@@ -8917,7 +8918,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <v>41182</v>
       </c>
@@ -8943,7 +8944,7 @@
         <v>41165</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>50</v>
@@ -8962,7 +8963,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>207</v>
@@ -8979,7 +8980,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
         <v>41213</v>
       </c>
@@ -9005,7 +9006,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>46</v>
@@ -9024,7 +9025,7 @@
         <v>41207</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>208</v>
@@ -9041,7 +9042,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <v>41243</v>
       </c>
@@ -9067,7 +9068,7 @@
         <v>41242</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>46</v>
@@ -9086,7 +9087,7 @@
         <v>41236</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>212</v>
@@ -9103,7 +9104,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="49"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <v>41274</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>46</v>
@@ -9151,7 +9152,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>213</v>
@@ -9171,7 +9172,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>215</v>
       </c>
@@ -9189,7 +9190,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>41305</v>
       </c>
@@ -9213,7 +9214,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <v>41333</v>
       </c>
@@ -9237,7 +9238,7 @@
         <v>41319</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>46</v>
@@ -9256,7 +9257,7 @@
         <v>41320</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>46</v>
@@ -9275,7 +9276,7 @@
         <v>41338</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>41364</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>41360</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>118</v>
@@ -9318,7 +9319,7 @@
         <v>41380</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41394</v>
       </c>
@@ -9342,7 +9343,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
         <v>41425</v>
       </c>
@@ -9368,7 +9369,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>118</v>
@@ -9385,7 +9386,7 @@
         <v>41445</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>218</v>
@@ -9402,7 +9403,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>41455</v>
       </c>
@@ -9426,7 +9427,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>41486</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41517</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>41491</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>120</v>
@@ -9497,7 +9498,7 @@
         <v>41516</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>52</v>
@@ -9516,7 +9517,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>41547</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>41530</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>81</v>
@@ -9561,7 +9562,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>41578</v>
       </c>
@@ -9585,7 +9586,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>81</v>
@@ -9604,7 +9605,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>41608</v>
       </c>
@@ -9630,7 +9631,7 @@
         <v>41611</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>120</v>
@@ -9649,7 +9650,7 @@
         <v>41603</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>120</v>
@@ -9666,7 +9667,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>41639</v>
       </c>
@@ -9692,7 +9693,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>120</v>
@@ -9714,7 +9715,7 @@
         <v>41635</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>46</v>
@@ -9736,7 +9737,7 @@
         <v>41619</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="48" t="s">
         <v>224</v>
       </c>
@@ -9754,7 +9755,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>41670</v>
       </c>
@@ -9778,7 +9779,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <v>41698</v>
       </c>
@@ -9802,7 +9803,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <v>41729</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>41724</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40"/>
       <c r="B363" s="20" t="s">
         <v>118</v>
@@ -9845,7 +9846,7 @@
         <v>41745</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>120</v>
@@ -9864,7 +9865,7 @@
         <v>41730</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>219</v>
@@ -9881,7 +9882,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>41759</v>
       </c>
@@ -9905,7 +9906,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <v>41790</v>
       </c>
@@ -9931,7 +9932,7 @@
         <v>41782</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40"/>
       <c r="B368" s="20" t="s">
         <v>118</v>
@@ -9948,7 +9949,7 @@
         <v>41810</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>226</v>
@@ -9965,7 +9966,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>41820</v>
       </c>
@@ -9989,7 +9990,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41851</v>
       </c>
@@ -10013,7 +10014,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>41882</v>
       </c>
@@ -10039,7 +10040,7 @@
         <v>41856</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>229</v>
@@ -10056,7 +10057,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <v>41912</v>
       </c>
@@ -10080,7 +10081,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>41943</v>
       </c>
@@ -10106,7 +10107,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>46</v>
@@ -10125,7 +10126,7 @@
         <v>41929</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>231</v>
@@ -10142,7 +10143,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
         <v>41973</v>
       </c>
@@ -10168,7 +10169,7 @@
         <v>42002</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>232</v>
@@ -10185,7 +10186,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <v>42004</v>
       </c>
@@ -10209,7 +10210,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="48" t="s">
         <v>235</v>
       </c>
@@ -10227,7 +10228,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>42035</v>
       </c>
@@ -10251,7 +10252,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42063</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>118</v>
@@ -10294,7 +10295,7 @@
         <v>42062</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40"/>
       <c r="B385" s="20" t="s">
         <v>236</v>
@@ -10311,7 +10312,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>42094</v>
       </c>
@@ -10335,7 +10336,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>42124</v>
       </c>
@@ -10359,7 +10360,7 @@
         <v>42110</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>46</v>
@@ -10378,7 +10379,7 @@
         <v>42111</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>50</v>
@@ -10397,7 +10398,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>67</v>
@@ -10416,7 +10417,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>239</v>
@@ -10433,7 +10434,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>42155</v>
       </c>
@@ -10459,7 +10460,7 @@
         <v>42153</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>118</v>
@@ -10476,7 +10477,7 @@
         <v>42174</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>238</v>
@@ -10493,7 +10494,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>42185</v>
       </c>
@@ -10517,7 +10518,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>42216</v>
       </c>
@@ -10541,7 +10542,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>42247</v>
       </c>
@@ -10561,7 +10562,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>42277</v>
       </c>
@@ -10585,7 +10586,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>42308</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>132</v>
@@ -10628,7 +10629,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>42338</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>42314</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>42369</v>
       </c>
@@ -10678,7 +10679,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="48" t="s">
         <v>246</v>
       </c>
@@ -10696,7 +10697,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42400</v>
       </c>
@@ -10716,7 +10717,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>42429</v>
       </c>
@@ -10740,7 +10741,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42460</v>
       </c>
@@ -10760,7 +10761,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <v>42490</v>
       </c>
@@ -10786,7 +10787,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>118</v>
@@ -10803,7 +10804,7 @@
         <v>42509</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>132</v>
@@ -10820,7 +10821,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>42521</v>
       </c>
@@ -10840,7 +10841,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>42551</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>42541</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>47</v>
@@ -10883,7 +10884,7 @@
         <v>42566</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42582</v>
       </c>
@@ -10907,7 +10908,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>42613</v>
       </c>
@@ -10933,7 +10934,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>132</v>
@@ -10950,7 +10951,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>42643</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>42642</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>31</v>
       </c>
@@ -10995,7 +10996,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42674</v>
       </c>
@@ -11021,7 +11022,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40"/>
       <c r="B419" s="20" t="s">
         <v>132</v>
@@ -11038,7 +11039,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>42704</v>
       </c>
@@ -11058,7 +11059,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>42735</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="48" t="s">
         <v>251</v>
       </c>
@@ -11102,7 +11103,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>42766</v>
       </c>
@@ -11122,7 +11123,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42794</v>
       </c>
@@ -11148,7 +11149,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>252</v>
@@ -11165,7 +11166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>253</v>
@@ -11184,7 +11185,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20" t="s">
         <v>132</v>
@@ -11201,7 +11202,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>42825</v>
       </c>
@@ -11227,7 +11228,7 @@
         <v>42828</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40"/>
       <c r="B429" s="20" t="s">
         <v>47</v>
@@ -11246,7 +11247,7 @@
         <v>42842</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42855</v>
       </c>
@@ -11266,7 +11267,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>42886</v>
       </c>
@@ -11292,7 +11293,7 @@
         <v>42906</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>42916</v>
       </c>
@@ -11312,7 +11313,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42947</v>
       </c>
@@ -11332,7 +11333,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>42978</v>
       </c>
@@ -11358,7 +11359,7 @@
         <v>42955</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>43008</v>
       </c>
@@ -11378,7 +11379,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43039</v>
       </c>
@@ -11404,7 +11405,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43069</v>
       </c>
@@ -11430,7 +11431,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43100</v>
       </c>
@@ -11450,7 +11451,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="48" t="s">
         <v>259</v>
       </c>
@@ -11468,7 +11469,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>43131</v>
       </c>
@@ -11488,7 +11489,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>43159</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>67</v>
@@ -11533,7 +11534,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43190</v>
       </c>
@@ -11553,7 +11554,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43220</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>43206</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43251</v>
       </c>
@@ -11597,7 +11598,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43281</v>
       </c>
@@ -11623,7 +11624,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>47</v>
@@ -11642,7 +11643,7 @@
         <v>43265</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11661,7 +11662,7 @@
         <v>43277</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>43312</v>
       </c>
@@ -11687,7 +11688,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43343</v>
       </c>
@@ -11713,7 +11714,7 @@
         <v>43315</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>43373</v>
       </c>
@@ -11733,7 +11734,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>43404</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>118</v>
@@ -11776,7 +11777,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43434</v>
       </c>
@@ -11796,7 +11797,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>43465</v>
       </c>
@@ -11816,7 +11817,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="48" t="s">
         <v>266</v>
       </c>
@@ -11834,7 +11835,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43496</v>
       </c>
@@ -11854,7 +11855,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43524</v>
       </c>
@@ -11874,7 +11875,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>43555</v>
       </c>
@@ -11894,7 +11895,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43585</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40"/>
       <c r="B461" s="20" t="s">
         <v>118</v>
@@ -11937,7 +11938,7 @@
         <v>43571</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>118</v>
@@ -11954,7 +11955,7 @@
         <v>43602</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>43616</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43646</v>
       </c>
@@ -12000,7 +12001,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43677</v>
       </c>
@@ -12020,7 +12021,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>43708</v>
       </c>
@@ -12040,7 +12041,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>43738</v>
       </c>
@@ -12060,7 +12061,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43769</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>73</v>
@@ -12105,7 +12106,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>43799</v>
       </c>
@@ -12125,7 +12126,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43830</v>
       </c>
@@ -12145,7 +12146,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="48" t="s">
         <v>271</v>
       </c>
@@ -12163,7 +12164,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43861</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>273</v>
@@ -12204,7 +12205,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>43890</v>
       </c>
@@ -12224,7 +12225,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>43921</v>
       </c>
@@ -12244,7 +12245,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43951</v>
       </c>
@@ -12264,7 +12265,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>43982</v>
       </c>
@@ -12284,7 +12285,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>44012</v>
       </c>
@@ -12304,7 +12305,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>44043</v>
       </c>
@@ -12324,7 +12325,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44074</v>
       </c>
@@ -12344,7 +12345,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44104</v>
       </c>
@@ -12364,7 +12365,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44135</v>
       </c>
@@ -12388,7 +12389,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44165</v>
       </c>
@@ -12408,7 +12409,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44196</v>
       </c>
@@ -12434,7 +12435,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>275</v>
@@ -12454,7 +12455,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="48" t="s">
         <v>278</v>
       </c>
@@ -12472,7 +12473,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44227</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44255</v>
       </c>
@@ -12516,7 +12517,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44286</v>
       </c>
@@ -12536,7 +12537,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44316</v>
       </c>
@@ -12556,7 +12557,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>44347</v>
       </c>
@@ -12576,7 +12577,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44377</v>
       </c>
@@ -12596,7 +12597,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44408</v>
       </c>
@@ -12616,7 +12617,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>44439</v>
       </c>
@@ -12636,7 +12637,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44469</v>
       </c>
@@ -12656,7 +12657,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44500</v>
       </c>
@@ -12682,7 +12683,7 @@
         <v>44487</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44530</v>
       </c>
@@ -12702,7 +12703,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44561</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="48" t="s">
         <v>280</v>
       </c>
@@ -12746,7 +12747,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>44592</v>
       </c>
@@ -12766,7 +12767,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>44620</v>
       </c>
@@ -12790,7 +12791,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44651</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>44681</v>
       </c>
@@ -12840,7 +12841,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>79</v>
@@ -12862,7 +12863,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>294</v>
@@ -12882,7 +12883,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>44712</v>
       </c>
@@ -12902,7 +12903,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44742</v>
       </c>
@@ -12922,7 +12923,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>44773</v>
       </c>
@@ -12942,7 +12943,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44804</v>
       </c>
@@ -12966,7 +12967,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44834</v>
       </c>
@@ -12986,7 +12987,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <v>44865</v>
       </c>
@@ -13012,7 +13013,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>290</v>
@@ -13034,7 +13035,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44895</v>
       </c>
@@ -13058,7 +13059,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44926</v>
       </c>
@@ -13084,7 +13085,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40"/>
       <c r="B516" s="20" t="s">
         <v>290</v>
@@ -13106,7 +13107,7 @@
         <v>44916</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>291</v>
@@ -13126,7 +13127,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="49"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="48" t="s">
         <v>282</v>
       </c>
@@ -13144,7 +13145,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44957</v>
       </c>
@@ -13164,7 +13165,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>44985</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>132</v>
@@ -13208,7 +13209,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="49"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <v>45016</v>
       </c>
@@ -13234,7 +13235,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40"/>
       <c r="B523" s="20" t="s">
         <v>309</v>
@@ -13254,7 +13255,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <v>45046</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>132</v>
@@ -13298,7 +13299,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>45077</v>
       </c>
@@ -13324,7 +13325,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>50</v>
@@ -13346,7 +13347,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <v>45107</v>
       </c>
@@ -13372,7 +13373,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>45138</v>
       </c>
@@ -13396,7 +13397,7 @@
         <v>45121</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <v>45169</v>
       </c>
@@ -13416,7 +13417,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <v>45199</v>
       </c>
@@ -13442,7 +13443,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>45230</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>46</v>
@@ -13490,7 +13491,7 @@
         <v>45198</v>
       </c>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40"/>
       <c r="B534" s="20" t="s">
         <v>301</v>
@@ -13512,7 +13513,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <v>45260</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>45291</v>
       </c>
@@ -13562,7 +13563,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>95</v>
@@ -13584,7 +13585,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="48" t="s">
         <v>295</v>
       </c>
@@ -13602,29 +13603,33 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>45322</v>
       </c>
       <c r="B539" s="20"/>
-      <c r="C539" s="13"/>
+      <c r="C539" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D539" s="39"/>
       <c r="E539" s="9"/>
       <c r="F539" s="20"/>
-      <c r="G539" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G539" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H539" s="39"/>
       <c r="I539" s="9"/>
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <v>45351</v>
       </c>
-      <c r="B540" s="20"/>
+      <c r="B540" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C540" s="13"/>
       <c r="D540" s="39"/>
       <c r="E540" s="9"/>
@@ -13636,9 +13641,11 @@
       <c r="H540" s="39"/>
       <c r="I540" s="9"/>
       <c r="J540" s="11"/>
-      <c r="K540" s="20"/>
-    </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K540" s="49">
+        <v>45345</v>
+      </c>
+    </row>
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>45382</v>
       </c>
@@ -13656,7 +13663,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <v>45412</v>
       </c>
@@ -13674,7 +13681,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <v>45443</v>
       </c>
@@ -13692,7 +13699,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>45473</v>
       </c>
@@ -13710,7 +13717,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <v>45504</v>
       </c>
@@ -13728,7 +13735,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>45535</v>
       </c>
@@ -13746,7 +13753,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <v>45565</v>
       </c>
@@ -13764,7 +13771,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>45596</v>
       </c>
@@ -13782,7 +13789,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -13798,7 +13805,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -13814,7 +13821,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -13830,7 +13837,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -13846,7 +13853,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -13862,7 +13869,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -13878,7 +13885,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -13894,7 +13901,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -13910,7 +13917,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -13926,7 +13933,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -13942,7 +13949,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -13958,7 +13965,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -13974,7 +13981,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -13990,7 +13997,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -14006,7 +14013,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -14022,7 +14029,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -14038,7 +14045,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -14054,7 +14061,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -14070,7 +14077,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -14086,7 +14093,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -14102,7 +14109,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -14118,7 +14125,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -14134,7 +14141,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -14150,7 +14157,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -14166,7 +14173,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -14182,7 +14189,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -14198,7 +14205,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -14214,7 +14221,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -14230,7 +14237,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -14246,7 +14253,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -14262,7 +14269,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -14278,7 +14285,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -14294,7 +14301,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -14310,7 +14317,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -14326,7 +14333,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -14342,7 +14349,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -14358,7 +14365,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -14374,7 +14381,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -14390,7 +14397,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -14406,7 +14413,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -14422,7 +14429,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -14438,7 +14445,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -14454,7 +14461,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -14470,7 +14477,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -14486,7 +14493,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -14502,7 +14509,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -14518,7 +14525,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -14534,7 +14541,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -14550,7 +14557,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -14566,7 +14573,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="41"/>
       <c r="B598" s="15"/>
       <c r="C598" s="42"/>
@@ -14597,10 +14604,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14623,28 +14630,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -14657,7 +14664,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14686,7 +14693,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>0.54200000000000004</v>
       </c>
@@ -14714,17 +14721,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14745,7 +14752,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14772,7 +14779,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14798,7 +14805,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14824,7 +14831,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14850,7 +14857,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14876,7 +14883,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14902,7 +14909,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14928,7 +14935,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14954,7 +14961,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14974,7 +14981,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14994,7 +15001,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15014,7 +15021,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15035,7 +15042,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15056,7 +15063,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15077,7 +15084,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15098,7 +15105,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15119,7 +15126,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15140,7 +15147,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15161,7 +15168,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15182,7 +15189,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15203,7 +15210,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15224,7 +15231,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15245,7 +15252,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15266,7 +15273,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15287,7 +15294,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15308,7 +15315,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15329,7 +15336,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15350,7 +15357,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15371,7 +15378,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15392,7 +15399,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15413,7 +15420,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15434,7 +15441,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15443,7 +15450,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15452,7 +15459,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15461,7 +15468,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15470,7 +15477,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15479,7 +15486,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15488,7 +15495,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15497,7 +15504,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15506,7 +15513,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15515,7 +15522,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15524,7 +15531,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15533,7 +15540,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15542,7 +15549,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15551,7 +15558,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15560,7 +15567,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15569,7 +15576,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15578,7 +15585,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15587,7 +15594,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15596,7 +15603,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15605,7 +15612,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15614,7 +15621,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15623,7 +15630,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15632,7 +15639,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15641,7 +15648,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15650,7 +15657,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15659,7 +15666,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15668,7 +15675,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15677,7 +15684,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15686,7 +15693,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15695,7 +15702,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
